--- a/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Westmore_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Westmore_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\Orleans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769B876-5931-46EF-BFAD-2650A138C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AA15FC-8884-D543-A992-62809AA8718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -999,21 +999,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1177,21 +1177,21 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1305,14 +1305,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1460,14 +1460,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -2032,18 +2032,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -2208,13 +2208,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -2230,13 +2230,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -2245,31 +2245,31 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -2534,18 +2534,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2585,12 +2585,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2606,12 +2606,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2619,12 +2619,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -2632,80 +2632,8 @@
         <f>Districts!B1</f>
         <v>Westmore</v>
       </c>
-      <c r="C12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -2713,9 +2641,12 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44145</v>
       </c>
     </row>
   </sheetData>
@@ -2764,9 +2695,9 @@
       <selection activeCell="D16" sqref="D16:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2804,12 +2735,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -2841,7 +2772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -2873,7 +2804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -2905,7 +2836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -2937,22 +2868,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -2960,7 +2891,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>108</v>
       </c>
@@ -2968,7 +2899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -2976,7 +2907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -2984,7 +2915,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -2992,7 +2923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
